--- a/Sample_Quiz.xlsx
+++ b/Sample_Quiz.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Final_app\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0CE68DB-C4F7-4025-9831-4796CB025C37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15C8896C-8429-4E09-A965-C369BDA1C108}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{CE330952-D1BE-4DDC-959D-E65416FAE341}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="219">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="57">
   <si>
     <t>StudentID</t>
   </si>
@@ -200,499 +200,13 @@
     <t>SV051</t>
   </si>
   <si>
-    <t>26 mins 23 secs</t>
-  </si>
-  <si>
     <t>SV052</t>
   </si>
   <si>
     <t>SV053</t>
   </si>
   <si>
-    <t>SV054</t>
-  </si>
-  <si>
-    <t>SV055</t>
-  </si>
-  <si>
-    <t>SV056</t>
-  </si>
-  <si>
-    <t>SV057</t>
-  </si>
-  <si>
-    <t>SV058</t>
-  </si>
-  <si>
-    <t>SV059</t>
-  </si>
-  <si>
-    <t>SV060</t>
-  </si>
-  <si>
-    <t>SV061</t>
-  </si>
-  <si>
-    <t>SV062</t>
-  </si>
-  <si>
-    <t>SV063</t>
-  </si>
-  <si>
-    <t>SV064</t>
-  </si>
-  <si>
-    <t>SV065</t>
-  </si>
-  <si>
-    <t>SV066</t>
-  </si>
-  <si>
-    <t>SV067</t>
-  </si>
-  <si>
-    <t>SV068</t>
-  </si>
-  <si>
-    <t>SV069</t>
-  </si>
-  <si>
-    <t>SV070</t>
-  </si>
-  <si>
-    <t>SV071</t>
-  </si>
-  <si>
-    <t>SV072</t>
-  </si>
-  <si>
-    <t>SV073</t>
-  </si>
-  <si>
-    <t>SV074</t>
-  </si>
-  <si>
-    <t>SV075</t>
-  </si>
-  <si>
-    <t>SV076</t>
-  </si>
-  <si>
-    <t>SV077</t>
-  </si>
-  <si>
-    <t>SV078</t>
-  </si>
-  <si>
-    <t>SV079</t>
-  </si>
-  <si>
-    <t>SV080</t>
-  </si>
-  <si>
-    <t>SV081</t>
-  </si>
-  <si>
-    <t>SV082</t>
-  </si>
-  <si>
-    <t>SV083</t>
-  </si>
-  <si>
-    <t>SV084</t>
-  </si>
-  <si>
-    <t>SV085</t>
-  </si>
-  <si>
-    <t>SV086</t>
-  </si>
-  <si>
-    <t>SV087</t>
-  </si>
-  <si>
-    <t>SV088</t>
-  </si>
-  <si>
-    <t>SV089</t>
-  </si>
-  <si>
-    <t>SV090</t>
-  </si>
-  <si>
-    <t>SV091</t>
-  </si>
-  <si>
-    <t>SV092</t>
-  </si>
-  <si>
-    <t>SV093</t>
-  </si>
-  <si>
-    <t>SV094</t>
-  </si>
-  <si>
-    <t>SV095</t>
-  </si>
-  <si>
-    <t>SV096</t>
-  </si>
-  <si>
-    <t>SV097</t>
-  </si>
-  <si>
-    <t>SV098</t>
-  </si>
-  <si>
-    <t>SV099</t>
-  </si>
-  <si>
-    <t>SV100</t>
-  </si>
-  <si>
-    <t>SV101</t>
-  </si>
-  <si>
-    <t>SV102</t>
-  </si>
-  <si>
-    <t>SV103</t>
-  </si>
-  <si>
-    <t>SV104</t>
-  </si>
-  <si>
-    <t>SV105</t>
-  </si>
-  <si>
-    <t>SV106</t>
-  </si>
-  <si>
-    <t>SV107</t>
-  </si>
-  <si>
-    <t>SV108</t>
-  </si>
-  <si>
-    <t>SV109</t>
-  </si>
-  <si>
-    <t>SV110</t>
-  </si>
-  <si>
-    <t>SV111</t>
-  </si>
-  <si>
-    <t>SV112</t>
-  </si>
-  <si>
-    <t>SV113</t>
-  </si>
-  <si>
-    <t>SV114</t>
-  </si>
-  <si>
-    <t>SV115</t>
-  </si>
-  <si>
-    <t>SV116</t>
-  </si>
-  <si>
-    <t>SV117</t>
-  </si>
-  <si>
-    <t>SV118</t>
-  </si>
-  <si>
-    <t>SV119</t>
-  </si>
-  <si>
-    <t>SV120</t>
-  </si>
-  <si>
-    <t>SV121</t>
-  </si>
-  <si>
-    <t>SV122</t>
-  </si>
-  <si>
-    <t>SV123</t>
-  </si>
-  <si>
-    <t>SV124</t>
-  </si>
-  <si>
-    <t>SV125</t>
-  </si>
-  <si>
-    <t>SV126</t>
-  </si>
-  <si>
-    <t>SV127</t>
-  </si>
-  <si>
-    <t>SV128</t>
-  </si>
-  <si>
-    <t>SV129</t>
-  </si>
-  <si>
-    <t>SV130</t>
-  </si>
-  <si>
-    <t>SV131</t>
-  </si>
-  <si>
-    <t>SV132</t>
-  </si>
-  <si>
-    <t>SV133</t>
-  </si>
-  <si>
-    <t>SV134</t>
-  </si>
-  <si>
-    <t>SV135</t>
-  </si>
-  <si>
-    <t>29 mins 18 secs</t>
-  </si>
-  <si>
-    <t>33 mins 53 secs</t>
-  </si>
-  <si>
-    <t>11 mins 10 secs</t>
-  </si>
-  <si>
-    <t>16 mins 33 secs</t>
-  </si>
-  <si>
-    <t>16 mins 52 secs</t>
-  </si>
-  <si>
-    <t>24 mins 58 secs</t>
-  </si>
-  <si>
-    <t>34 mins 23 secs</t>
-  </si>
-  <si>
-    <t>13 mins 18 secs</t>
-  </si>
-  <si>
-    <t>16 mins 58 secs</t>
-  </si>
-  <si>
-    <t>18 mins 7 secs</t>
-  </si>
-  <si>
-    <t>8 mins 4 secs</t>
-  </si>
-  <si>
-    <t>8 mins 20 secs</t>
-  </si>
-  <si>
-    <t>18 mins 57 secs</t>
-  </si>
-  <si>
-    <t>13 mins 43 secs</t>
-  </si>
-  <si>
-    <t>27 mins 15 secs</t>
-  </si>
-  <si>
-    <t>33 mins 30 secs</t>
-  </si>
-  <si>
-    <t>31 mins 25 secs</t>
-  </si>
-  <si>
-    <t>19 mins 47 secs</t>
-  </si>
-  <si>
-    <t>23 mins 59 secs</t>
-  </si>
-  <si>
-    <t>32 mins 17 secs</t>
-  </si>
-  <si>
-    <t>27 mins 44 secs</t>
-  </si>
-  <si>
-    <t>7 mins 7 secs</t>
-  </si>
-  <si>
-    <t>32 mins 15 secs</t>
-  </si>
-  <si>
-    <t>9 mins 7 secs</t>
-  </si>
-  <si>
-    <t>25 mins 31 secs</t>
-  </si>
-  <si>
-    <t>14 mins 52 secs</t>
-  </si>
-  <si>
-    <t>8 mins 26 secs</t>
-  </si>
-  <si>
-    <t>34 mins 14 secs</t>
-  </si>
-  <si>
-    <t>4 mins 44 secs</t>
-  </si>
-  <si>
-    <t>35 mins 35 secs</t>
-  </si>
-  <si>
-    <t>10 mins 53 secs</t>
-  </si>
-  <si>
-    <t>9 mins 0 secs</t>
-  </si>
-  <si>
-    <t>18 mins 18 secs</t>
-  </si>
-  <si>
-    <t>4 mins 16 secs</t>
-  </si>
-  <si>
-    <t>18 mins 44 secs</t>
-  </si>
-  <si>
-    <t>8 mins 41 secs</t>
-  </si>
-  <si>
-    <t>6 mins 58 secs</t>
-  </si>
-  <si>
-    <t>11 mins 34 secs</t>
-  </si>
-  <si>
-    <t>25 mins 48 secs</t>
-  </si>
-  <si>
-    <t>11 mins 37 secs</t>
-  </si>
-  <si>
-    <t>16 mins 42 secs</t>
-  </si>
-  <si>
-    <t>28 mins 26 secs</t>
-  </si>
-  <si>
-    <t>16 mins 56 secs</t>
-  </si>
-  <si>
-    <t>29 mins 54 secs</t>
-  </si>
-  <si>
-    <t>22 mins 4 secs</t>
-  </si>
-  <si>
-    <t>5 mins 9 secs</t>
-  </si>
-  <si>
-    <t>10 mins 37 secs</t>
-  </si>
-  <si>
-    <t>3 mins 22 secs</t>
-  </si>
-  <si>
-    <t>33 mins 35 secs</t>
-  </si>
-  <si>
-    <t>25 mins 32 secs</t>
-  </si>
-  <si>
-    <t>30 mins 0 secs</t>
-  </si>
-  <si>
-    <t>13 mins 31 secs</t>
-  </si>
-  <si>
-    <t>11 mins 50 secs</t>
-  </si>
-  <si>
-    <t>35 mins 51 secs</t>
-  </si>
-  <si>
-    <t>32 mins 8 secs</t>
-  </si>
-  <si>
-    <t>33 mins 10 secs</t>
-  </si>
-  <si>
-    <t>4 mins 38 secs</t>
-  </si>
-  <si>
-    <t>9 mins 50 secs</t>
-  </si>
-  <si>
-    <t>4 mins 34 secs</t>
-  </si>
-  <si>
-    <t>29 mins 22 secs</t>
-  </si>
-  <si>
-    <t>23 mins 30 secs</t>
-  </si>
-  <si>
-    <t>31 mins 26 secs</t>
-  </si>
-  <si>
-    <t>14 mins 22 secs</t>
-  </si>
-  <si>
-    <t>11 mins 46 secs</t>
-  </si>
-  <si>
-    <t>8 mins 31 secs</t>
-  </si>
-  <si>
-    <t>35 mins 21 secs</t>
-  </si>
-  <si>
-    <t>33 mins 20 secs</t>
-  </si>
-  <si>
-    <t>18 mins 56 secs</t>
-  </si>
-  <si>
-    <t>26 mins 35 secs</t>
-  </si>
-  <si>
-    <t>12 mins 33 secs</t>
-  </si>
-  <si>
-    <t>19 mins 5 secs</t>
-  </si>
-  <si>
-    <t>24 mins 37 secs</t>
-  </si>
-  <si>
-    <t>15 mins 14 secs</t>
-  </si>
-  <si>
-    <t>7 mins 55 secs</t>
-  </si>
-  <si>
-    <t>12 mins 45 secs</t>
-  </si>
-  <si>
-    <t>34 mins 22 secs</t>
-  </si>
-  <si>
-    <t>4 mins 2 secs</t>
-  </si>
-  <si>
-    <t>9 mins 48 secs</t>
-  </si>
-  <si>
-    <t>8 mins 43 secs</t>
-  </si>
-  <si>
-    <t>15 mins 46 secs</t>
+    <t>4 mins 27 secs</t>
   </si>
 </sst>
 </file>
@@ -702,7 +216,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd/mm/yy\,\ hh:mm:ss"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -732,6 +246,12 @@
       <sz val="8"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Aptos Narrow"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -767,8 +287,9 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -779,13 +300,14 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{95C73A92-2451-44E9-923F-87ED2FBF9E84}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1119,8 +641,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F62CF0A-EC29-4B74-AF2D-BEB42D77BBA1}">
   <dimension ref="A1:H5755"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" topLeftCell="A2034" workbookViewId="0">
+      <selection activeCell="D2045" sqref="D2045"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1136,10 +658,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1"/>
@@ -1150,11 +672,11 @@
       <c r="H1" s="1"/>
     </row>
     <row r="2" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="4" t="s">
-        <v>55</v>
+      <c r="A2" s="5" t="s">
+        <v>2</v>
       </c>
-      <c r="B2" s="4" t="s">
-        <v>139</v>
+      <c r="B2" s="5" t="s">
+        <v>56</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
@@ -1164,11 +686,11 @@
       <c r="H2" s="1"/>
     </row>
     <row r="3" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="4" t="s">
-        <v>56</v>
+      <c r="A3" s="5" t="s">
+        <v>3</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>140</v>
+      <c r="B3" s="5" t="s">
+        <v>17</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
@@ -1178,12 +700,6 @@
       <c r="H3" s="1"/>
     </row>
     <row r="4" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>141</v>
-      </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
@@ -1192,12 +708,6 @@
       <c r="H4" s="1"/>
     </row>
     <row r="5" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>142</v>
-      </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
@@ -1206,12 +716,6 @@
       <c r="H5" s="1"/>
     </row>
     <row r="6" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>143</v>
-      </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
@@ -1220,12 +724,6 @@
       <c r="H6" s="1"/>
     </row>
     <row r="7" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>144</v>
-      </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
@@ -1234,12 +732,6 @@
       <c r="H7" s="1"/>
     </row>
     <row r="8" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>145</v>
-      </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
@@ -1248,12 +740,6 @@
       <c r="H8" s="1"/>
     </row>
     <row r="9" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>146</v>
-      </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
@@ -1262,12 +748,6 @@
       <c r="H9" s="1"/>
     </row>
     <row r="10" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>147</v>
-      </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
@@ -1276,12 +756,6 @@
       <c r="H10" s="1"/>
     </row>
     <row r="11" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>148</v>
-      </c>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
@@ -1290,12 +764,6 @@
       <c r="H11" s="1"/>
     </row>
     <row r="12" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>149</v>
-      </c>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
@@ -1304,12 +772,6 @@
       <c r="H12" s="1"/>
     </row>
     <row r="13" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>150</v>
-      </c>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
@@ -1318,12 +780,6 @@
       <c r="H13" s="1"/>
     </row>
     <row r="14" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>151</v>
-      </c>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
@@ -1332,12 +788,6 @@
       <c r="H14" s="1"/>
     </row>
     <row r="15" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>152</v>
-      </c>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
@@ -1346,12 +796,6 @@
       <c r="H15" s="1"/>
     </row>
     <row r="16" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>153</v>
-      </c>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
@@ -1359,13 +803,7 @@
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
     </row>
-    <row r="17" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>154</v>
-      </c>
+    <row r="17" spans="3:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
@@ -1373,13 +811,7 @@
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
     </row>
-    <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>155</v>
-      </c>
+    <row r="18" spans="3:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
@@ -1387,13 +819,7 @@
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
     </row>
-    <row r="19" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>156</v>
-      </c>
+    <row r="19" spans="3:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
@@ -1401,13 +827,7 @@
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
     </row>
-    <row r="20" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>17</v>
-      </c>
+    <row r="20" spans="3:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
@@ -1415,13 +835,7 @@
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
     </row>
-    <row r="21" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="B21" s="4" t="s">
-        <v>157</v>
-      </c>
+    <row r="21" spans="3:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
@@ -1429,13 +843,7 @@
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
     </row>
-    <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="B22" s="4" t="s">
-        <v>158</v>
-      </c>
+    <row r="22" spans="3:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
@@ -1443,13 +851,7 @@
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
     </row>
-    <row r="23" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="B23" s="4" t="s">
-        <v>159</v>
-      </c>
+    <row r="23" spans="3:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
@@ -1457,13 +859,7 @@
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
     </row>
-    <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="B24" s="4" t="s">
-        <v>160</v>
-      </c>
+    <row r="24" spans="3:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
@@ -1471,13 +867,7 @@
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
     </row>
-    <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="B25" s="4" t="s">
-        <v>161</v>
-      </c>
+    <row r="25" spans="3:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
@@ -1485,13 +875,7 @@
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
     </row>
-    <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="B26" s="4" t="s">
-        <v>162</v>
-      </c>
+    <row r="26" spans="3:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
@@ -1499,13 +883,7 @@
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
     </row>
-    <row r="27" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A27" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="B27" s="4" t="s">
-        <v>163</v>
-      </c>
+    <row r="27" spans="3:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
@@ -1513,13 +891,7 @@
       <c r="G27" s="1"/>
       <c r="H27" s="1"/>
     </row>
-    <row r="28" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A28" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="B28" s="4" t="s">
-        <v>164</v>
-      </c>
+    <row r="28" spans="3:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
       <c r="E28" s="1"/>
@@ -1527,13 +899,7 @@
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
     </row>
-    <row r="29" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A29" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="B29" s="4" t="s">
-        <v>54</v>
-      </c>
+    <row r="29" spans="3:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
       <c r="E29" s="1"/>
@@ -1541,13 +907,7 @@
       <c r="G29" s="1"/>
       <c r="H29" s="1"/>
     </row>
-    <row r="30" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A30" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="B30" s="4" t="s">
-        <v>165</v>
-      </c>
+    <row r="30" spans="3:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
@@ -1555,13 +915,7 @@
       <c r="G30" s="1"/>
       <c r="H30" s="1"/>
     </row>
-    <row r="31" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A31" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="B31" s="4" t="s">
-        <v>166</v>
-      </c>
+    <row r="31" spans="3:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
@@ -1569,13 +923,7 @@
       <c r="G31" s="1"/>
       <c r="H31" s="1"/>
     </row>
-    <row r="32" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A32" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="B32" s="4" t="s">
-        <v>167</v>
-      </c>
+    <row r="32" spans="3:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
       <c r="E32" s="1"/>
@@ -1583,13 +931,7 @@
       <c r="G32" s="1"/>
       <c r="H32" s="1"/>
     </row>
-    <row r="33" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A33" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="B33" s="4" t="s">
-        <v>168</v>
-      </c>
+    <row r="33" spans="3:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
       <c r="E33" s="1"/>
@@ -1597,13 +939,7 @@
       <c r="G33" s="1"/>
       <c r="H33" s="1"/>
     </row>
-    <row r="34" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A34" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="B34" s="4" t="s">
-        <v>169</v>
-      </c>
+    <row r="34" spans="3:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
       <c r="E34" s="1"/>
@@ -1611,13 +947,7 @@
       <c r="G34" s="1"/>
       <c r="H34" s="1"/>
     </row>
-    <row r="35" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A35" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="B35" s="4" t="s">
-        <v>170</v>
-      </c>
+    <row r="35" spans="3:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
       <c r="E35" s="1"/>
@@ -1625,13 +955,7 @@
       <c r="G35" s="1"/>
       <c r="H35" s="1"/>
     </row>
-    <row r="36" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A36" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="B36" s="4" t="s">
-        <v>171</v>
-      </c>
+    <row r="36" spans="3:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
       <c r="E36" s="1"/>
@@ -1639,13 +963,7 @@
       <c r="G36" s="1"/>
       <c r="H36" s="1"/>
     </row>
-    <row r="37" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A37" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="B37" s="4" t="s">
-        <v>172</v>
-      </c>
+    <row r="37" spans="3:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
       <c r="E37" s="1"/>
@@ -1653,13 +971,7 @@
       <c r="G37" s="1"/>
       <c r="H37" s="1"/>
     </row>
-    <row r="38" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A38" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="B38" s="4" t="s">
-        <v>173</v>
-      </c>
+    <row r="38" spans="3:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
       <c r="E38" s="1"/>
@@ -1667,13 +979,7 @@
       <c r="G38" s="1"/>
       <c r="H38" s="1"/>
     </row>
-    <row r="39" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A39" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="B39" s="4" t="s">
-        <v>174</v>
-      </c>
+    <row r="39" spans="3:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
       <c r="E39" s="1"/>
@@ -1681,13 +987,7 @@
       <c r="G39" s="1"/>
       <c r="H39" s="1"/>
     </row>
-    <row r="40" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A40" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="B40" s="4" t="s">
-        <v>17</v>
-      </c>
+    <row r="40" spans="3:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
       <c r="E40" s="1"/>
@@ -1695,13 +995,7 @@
       <c r="G40" s="1"/>
       <c r="H40" s="1"/>
     </row>
-    <row r="41" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A41" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="B41" s="4" t="s">
-        <v>175</v>
-      </c>
+    <row r="41" spans="3:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
       <c r="E41" s="1"/>
@@ -1709,13 +1003,7 @@
       <c r="G41" s="1"/>
       <c r="H41" s="1"/>
     </row>
-    <row r="42" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A42" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="B42" s="4" t="s">
-        <v>176</v>
-      </c>
+    <row r="42" spans="3:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
       <c r="E42" s="1"/>
@@ -1723,13 +1011,7 @@
       <c r="G42" s="1"/>
       <c r="H42" s="1"/>
     </row>
-    <row r="43" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A43" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="B43" s="4" t="s">
-        <v>177</v>
-      </c>
+    <row r="43" spans="3:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
       <c r="E43" s="1"/>
@@ -1737,13 +1019,7 @@
       <c r="G43" s="1"/>
       <c r="H43" s="1"/>
     </row>
-    <row r="44" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A44" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="B44" s="4" t="s">
-        <v>178</v>
-      </c>
+    <row r="44" spans="3:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
       <c r="E44" s="1"/>
@@ -1751,13 +1027,7 @@
       <c r="G44" s="1"/>
       <c r="H44" s="1"/>
     </row>
-    <row r="45" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A45" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="B45" s="4" t="s">
-        <v>179</v>
-      </c>
+    <row r="45" spans="3:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C45" s="1"/>
       <c r="D45" s="1"/>
       <c r="E45" s="1"/>
@@ -1765,13 +1035,7 @@
       <c r="G45" s="1"/>
       <c r="H45" s="1"/>
     </row>
-    <row r="46" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A46" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="B46" s="4" t="s">
-        <v>180</v>
-      </c>
+    <row r="46" spans="3:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
       <c r="E46" s="1"/>
@@ -1779,13 +1043,7 @@
       <c r="G46" s="1"/>
       <c r="H46" s="1"/>
     </row>
-    <row r="47" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A47" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="B47" s="4" t="s">
-        <v>181</v>
-      </c>
+    <row r="47" spans="3:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
       <c r="E47" s="1"/>
@@ -1793,13 +1051,7 @@
       <c r="G47" s="1"/>
       <c r="H47" s="1"/>
     </row>
-    <row r="48" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A48" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="B48" s="4" t="s">
-        <v>182</v>
-      </c>
+    <row r="48" spans="3:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>
       <c r="E48" s="1"/>
@@ -1807,13 +1059,7 @@
       <c r="G48" s="1"/>
       <c r="H48" s="1"/>
     </row>
-    <row r="49" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A49" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="B49" s="4" t="s">
-        <v>183</v>
-      </c>
+    <row r="49" spans="3:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
       <c r="E49" s="1"/>
@@ -1821,13 +1067,7 @@
       <c r="G49" s="1"/>
       <c r="H49" s="1"/>
     </row>
-    <row r="50" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A50" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="B50" s="4" t="s">
-        <v>184</v>
-      </c>
+    <row r="50" spans="3:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C50" s="1"/>
       <c r="D50" s="1"/>
       <c r="E50" s="1"/>
@@ -1835,13 +1075,7 @@
       <c r="G50" s="1"/>
       <c r="H50" s="1"/>
     </row>
-    <row r="51" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A51" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="B51" s="4" t="s">
-        <v>185</v>
-      </c>
+    <row r="51" spans="3:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C51" s="1"/>
       <c r="D51" s="1"/>
       <c r="E51" s="1"/>
@@ -1849,13 +1083,7 @@
       <c r="G51" s="1"/>
       <c r="H51" s="1"/>
     </row>
-    <row r="52" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A52" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="B52" s="4" t="s">
-        <v>186</v>
-      </c>
+    <row r="52" spans="3:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C52" s="1"/>
       <c r="D52" s="1"/>
       <c r="E52" s="1"/>
@@ -1863,13 +1091,7 @@
       <c r="G52" s="1"/>
       <c r="H52" s="1"/>
     </row>
-    <row r="53" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A53" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="B53" s="4" t="s">
-        <v>187</v>
-      </c>
+    <row r="53" spans="3:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C53" s="1"/>
       <c r="D53" s="1"/>
       <c r="E53" s="1"/>
@@ -1877,13 +1099,7 @@
       <c r="G53" s="1"/>
       <c r="H53" s="1"/>
     </row>
-    <row r="54" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A54" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="B54" s="4" t="s">
-        <v>188</v>
-      </c>
+    <row r="54" spans="3:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C54" s="1"/>
       <c r="D54" s="1"/>
       <c r="E54" s="1"/>
@@ -1891,13 +1107,7 @@
       <c r="G54" s="1"/>
       <c r="H54" s="1"/>
     </row>
-    <row r="55" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A55" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="B55" s="4" t="s">
-        <v>189</v>
-      </c>
+    <row r="55" spans="3:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C55" s="1"/>
       <c r="D55" s="1"/>
       <c r="E55" s="1"/>
@@ -1905,13 +1115,7 @@
       <c r="G55" s="1"/>
       <c r="H55" s="1"/>
     </row>
-    <row r="56" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A56" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="B56" s="4" t="s">
-        <v>190</v>
-      </c>
+    <row r="56" spans="3:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C56" s="1"/>
       <c r="D56" s="1"/>
       <c r="E56" s="1"/>
@@ -1919,13 +1123,7 @@
       <c r="G56" s="1"/>
       <c r="H56" s="1"/>
     </row>
-    <row r="57" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A57" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="B57" s="4" t="s">
-        <v>191</v>
-      </c>
+    <row r="57" spans="3:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C57" s="1"/>
       <c r="D57" s="1"/>
       <c r="E57" s="1"/>
@@ -1933,13 +1131,7 @@
       <c r="G57" s="1"/>
       <c r="H57" s="1"/>
     </row>
-    <row r="58" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A58" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="B58" s="4" t="s">
-        <v>192</v>
-      </c>
+    <row r="58" spans="3:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C58" s="1"/>
       <c r="D58" s="1"/>
       <c r="E58" s="1"/>
@@ -1947,13 +1139,7 @@
       <c r="G58" s="1"/>
       <c r="H58" s="1"/>
     </row>
-    <row r="59" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A59" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="B59" s="4" t="s">
-        <v>193</v>
-      </c>
+    <row r="59" spans="3:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
       <c r="E59" s="1"/>
@@ -1961,13 +1147,7 @@
       <c r="G59" s="1"/>
       <c r="H59" s="1"/>
     </row>
-    <row r="60" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A60" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="B60" s="4" t="s">
-        <v>194</v>
-      </c>
+    <row r="60" spans="3:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C60" s="1"/>
       <c r="D60" s="1"/>
       <c r="E60" s="1"/>
@@ -1975,13 +1155,7 @@
       <c r="G60" s="1"/>
       <c r="H60" s="1"/>
     </row>
-    <row r="61" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A61" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="B61" s="4" t="s">
-        <v>195</v>
-      </c>
+    <row r="61" spans="3:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C61" s="1"/>
       <c r="D61" s="1"/>
       <c r="E61" s="1"/>
@@ -1989,13 +1163,7 @@
       <c r="G61" s="1"/>
       <c r="H61" s="1"/>
     </row>
-    <row r="62" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A62" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="B62" s="4" t="s">
-        <v>196</v>
-      </c>
+    <row r="62" spans="3:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C62" s="1"/>
       <c r="D62" s="1"/>
       <c r="E62" s="1"/>
@@ -2003,13 +1171,7 @@
       <c r="G62" s="1"/>
       <c r="H62" s="1"/>
     </row>
-    <row r="63" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A63" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="B63" s="4" t="s">
-        <v>197</v>
-      </c>
+    <row r="63" spans="3:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C63" s="1"/>
       <c r="D63" s="1"/>
       <c r="E63" s="1"/>
@@ -2017,13 +1179,7 @@
       <c r="G63" s="1"/>
       <c r="H63" s="1"/>
     </row>
-    <row r="64" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A64" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="B64" s="4" t="s">
-        <v>198</v>
-      </c>
+    <row r="64" spans="3:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C64" s="1"/>
       <c r="D64" s="1"/>
       <c r="E64" s="1"/>
@@ -2031,13 +1187,7 @@
       <c r="G64" s="1"/>
       <c r="H64" s="1"/>
     </row>
-    <row r="65" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A65" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="B65" s="4" t="s">
-        <v>199</v>
-      </c>
+    <row r="65" spans="3:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C65" s="1"/>
       <c r="D65" s="1"/>
       <c r="E65" s="1"/>
@@ -2045,13 +1195,7 @@
       <c r="G65" s="1"/>
       <c r="H65" s="1"/>
     </row>
-    <row r="66" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A66" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="B66" s="4" t="s">
-        <v>200</v>
-      </c>
+    <row r="66" spans="3:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C66" s="1"/>
       <c r="D66" s="1"/>
       <c r="E66" s="1"/>
@@ -2059,13 +1203,7 @@
       <c r="G66" s="1"/>
       <c r="H66" s="1"/>
     </row>
-    <row r="67" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A67" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="B67" s="4" t="s">
-        <v>201</v>
-      </c>
+    <row r="67" spans="3:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C67" s="1"/>
       <c r="D67" s="1"/>
       <c r="E67" s="1"/>
@@ -2073,13 +1211,7 @@
       <c r="G67" s="1"/>
       <c r="H67" s="1"/>
     </row>
-    <row r="68" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A68" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="B68" s="4" t="s">
-        <v>202</v>
-      </c>
+    <row r="68" spans="3:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C68" s="1"/>
       <c r="D68" s="1"/>
       <c r="E68" s="1"/>
@@ -2087,13 +1219,7 @@
       <c r="G68" s="1"/>
       <c r="H68" s="1"/>
     </row>
-    <row r="69" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A69" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="B69" s="4" t="s">
-        <v>203</v>
-      </c>
+    <row r="69" spans="3:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C69" s="1"/>
       <c r="D69" s="1"/>
       <c r="E69" s="1"/>
@@ -2101,13 +1227,7 @@
       <c r="G69" s="1"/>
       <c r="H69" s="1"/>
     </row>
-    <row r="70" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A70" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="B70" s="4" t="s">
-        <v>204</v>
-      </c>
+    <row r="70" spans="3:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C70" s="1"/>
       <c r="D70" s="1"/>
       <c r="E70" s="1"/>
@@ -2115,13 +1235,7 @@
       <c r="G70" s="1"/>
       <c r="H70" s="1"/>
     </row>
-    <row r="71" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A71" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="B71" s="4" t="s">
-        <v>176</v>
-      </c>
+    <row r="71" spans="3:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C71" s="1"/>
       <c r="D71" s="1"/>
       <c r="E71" s="1"/>
@@ -2129,13 +1243,7 @@
       <c r="G71" s="1"/>
       <c r="H71" s="1"/>
     </row>
-    <row r="72" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A72" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="B72" s="4" t="s">
-        <v>205</v>
-      </c>
+    <row r="72" spans="3:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C72" s="1"/>
       <c r="D72" s="1"/>
       <c r="E72" s="1"/>
@@ -2143,13 +1251,7 @@
       <c r="G72" s="1"/>
       <c r="H72" s="1"/>
     </row>
-    <row r="73" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A73" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="B73" s="4" t="s">
-        <v>206</v>
-      </c>
+    <row r="73" spans="3:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C73" s="1"/>
       <c r="D73" s="1"/>
       <c r="E73" s="1"/>
@@ -2157,13 +1259,7 @@
       <c r="G73" s="1"/>
       <c r="H73" s="1"/>
     </row>
-    <row r="74" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A74" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="B74" s="4" t="s">
-        <v>207</v>
-      </c>
+    <row r="74" spans="3:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C74" s="1"/>
       <c r="D74" s="1"/>
       <c r="E74" s="1"/>
@@ -2171,13 +1267,7 @@
       <c r="G74" s="1"/>
       <c r="H74" s="1"/>
     </row>
-    <row r="75" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A75" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="B75" s="4" t="s">
-        <v>208</v>
-      </c>
+    <row r="75" spans="3:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C75" s="1"/>
       <c r="D75" s="1"/>
       <c r="E75" s="1"/>
@@ -2185,13 +1275,7 @@
       <c r="G75" s="1"/>
       <c r="H75" s="1"/>
     </row>
-    <row r="76" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A76" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="B76" s="4" t="s">
-        <v>209</v>
-      </c>
+    <row r="76" spans="3:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C76" s="1"/>
       <c r="D76" s="1"/>
       <c r="E76" s="1"/>
@@ -2199,13 +1283,7 @@
       <c r="G76" s="1"/>
       <c r="H76" s="1"/>
     </row>
-    <row r="77" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A77" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="B77" s="4" t="s">
-        <v>210</v>
-      </c>
+    <row r="77" spans="3:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C77" s="1"/>
       <c r="D77" s="1"/>
       <c r="E77" s="1"/>
@@ -2213,13 +1291,7 @@
       <c r="G77" s="1"/>
       <c r="H77" s="1"/>
     </row>
-    <row r="78" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A78" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="B78" s="4" t="s">
-        <v>211</v>
-      </c>
+    <row r="78" spans="3:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C78" s="1"/>
       <c r="D78" s="1"/>
       <c r="E78" s="1"/>
@@ -2227,13 +1299,7 @@
       <c r="G78" s="1"/>
       <c r="H78" s="1"/>
     </row>
-    <row r="79" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A79" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="B79" s="4" t="s">
-        <v>212</v>
-      </c>
+    <row r="79" spans="3:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C79" s="1"/>
       <c r="D79" s="1"/>
       <c r="E79" s="1"/>
@@ -2241,13 +1307,7 @@
       <c r="G79" s="1"/>
       <c r="H79" s="1"/>
     </row>
-    <row r="80" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A80" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="B80" s="4" t="s">
-        <v>213</v>
-      </c>
+    <row r="80" spans="3:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C80" s="1"/>
       <c r="D80" s="1"/>
       <c r="E80" s="1"/>
@@ -2256,12 +1316,6 @@
       <c r="H80" s="1"/>
     </row>
     <row r="81" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A81" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="B81" s="4" t="s">
-        <v>214</v>
-      </c>
       <c r="C81" s="1"/>
       <c r="D81" s="1"/>
       <c r="E81" s="1"/>
@@ -2270,12 +1324,6 @@
       <c r="H81" s="1"/>
     </row>
     <row r="82" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A82" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="B82" s="4" t="s">
-        <v>215</v>
-      </c>
       <c r="C82" s="1"/>
       <c r="D82" s="1"/>
       <c r="E82" s="1"/>
@@ -2284,12 +1332,6 @@
       <c r="H82" s="1"/>
     </row>
     <row r="83" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A83" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="B83" s="4" t="s">
-        <v>216</v>
-      </c>
       <c r="C83" s="1"/>
       <c r="D83" s="1"/>
       <c r="E83" s="1"/>
@@ -2298,12 +1340,6 @@
       <c r="H83" s="1"/>
     </row>
     <row r="84" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A84" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="B84" s="4" t="s">
-        <v>217</v>
-      </c>
       <c r="C84" s="1"/>
       <c r="D84" s="1"/>
       <c r="E84" s="1"/>
@@ -2312,12 +1348,6 @@
       <c r="H84" s="1"/>
     </row>
     <row r="85" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A85" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="B85" s="4" t="s">
-        <v>218</v>
-      </c>
       <c r="C85" s="1"/>
       <c r="D85" s="1"/>
       <c r="E85" s="1"/>
@@ -12081,7 +11111,7 @@
     </row>
     <row r="1051" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1051" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B1051" s="1"/>
       <c r="C1051" s="1"/>
@@ -12093,7 +11123,7 @@
     </row>
     <row r="1052" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1052" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B1052" s="1"/>
       <c r="C1052" s="1"/>
@@ -21474,7 +20504,6 @@
       <c r="H1989" s="1"/>
     </row>
     <row r="1990" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A1990" s="2"/>
       <c r="B1990" s="1"/>
       <c r="C1990" s="1"/>
       <c r="D1990" s="1"/>
@@ -21564,9 +20593,7 @@
       <c r="H1998" s="1"/>
     </row>
     <row r="1999" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A1999" s="2" t="s">
-        <v>0</v>
-      </c>
+      <c r="A1999" s="2"/>
       <c r="B1999" s="1"/>
       <c r="C1999" s="1"/>
       <c r="D1999" s="1"/>
@@ -21576,9 +20603,7 @@
       <c r="H1999" s="1"/>
     </row>
     <row r="2000" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A2000" s="2" t="s">
-        <v>2</v>
-      </c>
+      <c r="A2000" s="2"/>
       <c r="B2000" s="1"/>
       <c r="C2000" s="1"/>
       <c r="D2000" s="1"/>
@@ -21588,9 +20613,7 @@
       <c r="H2000" s="1"/>
     </row>
     <row r="2001" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A2001" s="2" t="s">
-        <v>3</v>
-      </c>
+      <c r="A2001" s="2"/>
       <c r="B2001" s="1"/>
       <c r="C2001" s="1"/>
       <c r="D2001" s="1"/>
@@ -21600,9 +20623,7 @@
       <c r="H2001" s="1"/>
     </row>
     <row r="2002" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A2002" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="A2002" s="2"/>
       <c r="B2002" s="1"/>
       <c r="C2002" s="1"/>
       <c r="D2002" s="1"/>
@@ -21612,9 +20633,7 @@
       <c r="H2002" s="1"/>
     </row>
     <row r="2003" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A2003" s="2" t="s">
-        <v>5</v>
-      </c>
+      <c r="A2003" s="2"/>
       <c r="B2003" s="1"/>
       <c r="C2003" s="1"/>
       <c r="D2003" s="1"/>
@@ -21624,9 +20643,7 @@
       <c r="H2003" s="1"/>
     </row>
     <row r="2004" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A2004" s="2" t="s">
-        <v>6</v>
-      </c>
+      <c r="A2004" s="2"/>
       <c r="B2004" s="1"/>
       <c r="C2004" s="1"/>
       <c r="D2004" s="1"/>
@@ -21636,9 +20653,7 @@
       <c r="H2004" s="1"/>
     </row>
     <row r="2005" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A2005" s="2" t="s">
-        <v>7</v>
-      </c>
+      <c r="A2005" s="2"/>
       <c r="B2005" s="1"/>
       <c r="C2005" s="1"/>
       <c r="D2005" s="1"/>
@@ -21648,9 +20663,7 @@
       <c r="H2005" s="1"/>
     </row>
     <row r="2006" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A2006" s="2" t="s">
-        <v>8</v>
-      </c>
+      <c r="A2006" s="2"/>
       <c r="B2006" s="1"/>
       <c r="C2006" s="1"/>
       <c r="D2006" s="1"/>
@@ -21660,9 +20673,7 @@
       <c r="H2006" s="1"/>
     </row>
     <row r="2007" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A2007" s="2" t="s">
-        <v>9</v>
-      </c>
+      <c r="A2007" s="2"/>
       <c r="B2007" s="1"/>
       <c r="C2007" s="1"/>
       <c r="D2007" s="1"/>
@@ -21672,9 +20683,7 @@
       <c r="H2007" s="1"/>
     </row>
     <row r="2008" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A2008" s="2" t="s">
-        <v>10</v>
-      </c>
+      <c r="A2008" s="2"/>
       <c r="B2008" s="1"/>
       <c r="C2008" s="1"/>
       <c r="D2008" s="1"/>
@@ -21684,9 +20693,7 @@
       <c r="H2008" s="1"/>
     </row>
     <row r="2009" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A2009" s="2" t="s">
-        <v>11</v>
-      </c>
+      <c r="A2009" s="2"/>
       <c r="B2009" s="1"/>
       <c r="C2009" s="1"/>
       <c r="D2009" s="1"/>
@@ -21696,9 +20703,7 @@
       <c r="H2009" s="1"/>
     </row>
     <row r="2010" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A2010" s="2" t="s">
-        <v>12</v>
-      </c>
+      <c r="A2010" s="2"/>
       <c r="B2010" s="1"/>
       <c r="C2010" s="1"/>
       <c r="D2010" s="1"/>
@@ -21708,9 +20713,7 @@
       <c r="H2010" s="1"/>
     </row>
     <row r="2011" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A2011" s="2" t="s">
-        <v>13</v>
-      </c>
+      <c r="A2011" s="2"/>
       <c r="B2011" s="1"/>
       <c r="C2011" s="1"/>
       <c r="D2011" s="1"/>
@@ -21720,9 +20723,7 @@
       <c r="H2011" s="1"/>
     </row>
     <row r="2012" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A2012" s="2" t="s">
-        <v>14</v>
-      </c>
+      <c r="A2012" s="2"/>
       <c r="B2012" s="1"/>
       <c r="C2012" s="1"/>
       <c r="D2012" s="1"/>
@@ -21732,9 +20733,7 @@
       <c r="H2012" s="1"/>
     </row>
     <row r="2013" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A2013" s="2" t="s">
-        <v>15</v>
-      </c>
+      <c r="A2013" s="2"/>
       <c r="B2013" s="1"/>
       <c r="C2013" s="1"/>
       <c r="D2013" s="1"/>
@@ -21744,9 +20743,7 @@
       <c r="H2013" s="1"/>
     </row>
     <row r="2014" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A2014" s="2" t="s">
-        <v>16</v>
-      </c>
+      <c r="A2014" s="2"/>
       <c r="B2014" s="1"/>
       <c r="C2014" s="1"/>
       <c r="D2014" s="1"/>
@@ -21756,9 +20753,7 @@
       <c r="H2014" s="1"/>
     </row>
     <row r="2015" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A2015" s="2" t="s">
-        <v>18</v>
-      </c>
+      <c r="A2015" s="2"/>
       <c r="B2015" s="1"/>
       <c r="C2015" s="1"/>
       <c r="D2015" s="1"/>
@@ -21768,9 +20763,7 @@
       <c r="H2015" s="1"/>
     </row>
     <row r="2016" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A2016" s="2" t="s">
-        <v>19</v>
-      </c>
+      <c r="A2016" s="2"/>
       <c r="B2016" s="1"/>
       <c r="C2016" s="1"/>
       <c r="D2016" s="1"/>
@@ -21780,9 +20773,7 @@
       <c r="H2016" s="1"/>
     </row>
     <row r="2017" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A2017" s="2" t="s">
-        <v>20</v>
-      </c>
+      <c r="A2017" s="2"/>
       <c r="B2017" s="1"/>
       <c r="C2017" s="1"/>
       <c r="D2017" s="1"/>
@@ -21792,9 +20783,7 @@
       <c r="H2017" s="1"/>
     </row>
     <row r="2018" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A2018" s="2" t="s">
-        <v>21</v>
-      </c>
+      <c r="A2018" s="2"/>
       <c r="B2018" s="1"/>
       <c r="C2018" s="1"/>
       <c r="D2018" s="1"/>
@@ -21804,9 +20793,7 @@
       <c r="H2018" s="1"/>
     </row>
     <row r="2019" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A2019" s="2" t="s">
-        <v>22</v>
-      </c>
+      <c r="A2019" s="2"/>
       <c r="B2019" s="1"/>
       <c r="C2019" s="1"/>
       <c r="D2019" s="1"/>
@@ -21816,9 +20803,7 @@
       <c r="H2019" s="1"/>
     </row>
     <row r="2020" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A2020" s="2" t="s">
-        <v>23</v>
-      </c>
+      <c r="A2020" s="2"/>
       <c r="B2020" s="1"/>
       <c r="C2020" s="1"/>
       <c r="D2020" s="1"/>
@@ -21828,9 +20813,7 @@
       <c r="H2020" s="1"/>
     </row>
     <row r="2021" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A2021" s="2" t="s">
-        <v>24</v>
-      </c>
+      <c r="A2021" s="2"/>
       <c r="B2021" s="1"/>
       <c r="C2021" s="1"/>
       <c r="D2021" s="1"/>
@@ -21840,9 +20823,7 @@
       <c r="H2021" s="1"/>
     </row>
     <row r="2022" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A2022" s="2" t="s">
-        <v>25</v>
-      </c>
+      <c r="A2022" s="2"/>
       <c r="B2022" s="1"/>
       <c r="C2022" s="1"/>
       <c r="D2022" s="1"/>
@@ -21852,9 +20833,7 @@
       <c r="H2022" s="1"/>
     </row>
     <row r="2023" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A2023" s="2" t="s">
-        <v>26</v>
-      </c>
+      <c r="A2023" s="2"/>
       <c r="B2023" s="1"/>
       <c r="C2023" s="1"/>
       <c r="D2023" s="1"/>
@@ -21864,9 +20843,7 @@
       <c r="H2023" s="1"/>
     </row>
     <row r="2024" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A2024" s="2" t="s">
-        <v>27</v>
-      </c>
+      <c r="A2024" s="2"/>
       <c r="B2024" s="1"/>
       <c r="C2024" s="1"/>
       <c r="D2024" s="1"/>
@@ -21876,9 +20853,7 @@
       <c r="H2024" s="1"/>
     </row>
     <row r="2025" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A2025" s="2" t="s">
-        <v>28</v>
-      </c>
+      <c r="A2025" s="2"/>
       <c r="B2025" s="1"/>
       <c r="C2025" s="1"/>
       <c r="D2025" s="1"/>
@@ -21888,9 +20863,7 @@
       <c r="H2025" s="1"/>
     </row>
     <row r="2026" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A2026" s="2" t="s">
-        <v>29</v>
-      </c>
+      <c r="A2026" s="2"/>
       <c r="B2026" s="1"/>
       <c r="C2026" s="1"/>
       <c r="D2026" s="1"/>
@@ -21900,9 +20873,7 @@
       <c r="H2026" s="1"/>
     </row>
     <row r="2027" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A2027" s="2" t="s">
-        <v>30</v>
-      </c>
+      <c r="A2027" s="2"/>
       <c r="B2027" s="1"/>
       <c r="C2027" s="1"/>
       <c r="D2027" s="1"/>
@@ -21912,9 +20883,7 @@
       <c r="H2027" s="1"/>
     </row>
     <row r="2028" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A2028" s="2" t="s">
-        <v>31</v>
-      </c>
+      <c r="A2028" s="2"/>
       <c r="B2028" s="1"/>
       <c r="C2028" s="1"/>
       <c r="D2028" s="1"/>
@@ -21924,9 +20893,7 @@
       <c r="H2028" s="1"/>
     </row>
     <row r="2029" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A2029" s="2" t="s">
-        <v>32</v>
-      </c>
+      <c r="A2029" s="2"/>
       <c r="B2029" s="1"/>
       <c r="C2029" s="1"/>
       <c r="D2029" s="1"/>
@@ -21936,9 +20903,7 @@
       <c r="H2029" s="1"/>
     </row>
     <row r="2030" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A2030" s="2" t="s">
-        <v>33</v>
-      </c>
+      <c r="A2030" s="2"/>
       <c r="B2030" s="1"/>
       <c r="C2030" s="1"/>
       <c r="D2030" s="1"/>
@@ -21948,9 +20913,7 @@
       <c r="H2030" s="1"/>
     </row>
     <row r="2031" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A2031" s="2" t="s">
-        <v>34</v>
-      </c>
+      <c r="A2031" s="2"/>
       <c r="B2031" s="1"/>
       <c r="C2031" s="1"/>
       <c r="D2031" s="1"/>
@@ -21960,9 +20923,7 @@
       <c r="H2031" s="1"/>
     </row>
     <row r="2032" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A2032" s="2" t="s">
-        <v>35</v>
-      </c>
+      <c r="A2032" s="2"/>
       <c r="B2032" s="1"/>
       <c r="C2032" s="1"/>
       <c r="D2032" s="1"/>
@@ -21972,9 +20933,7 @@
       <c r="H2032" s="1"/>
     </row>
     <row r="2033" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A2033" s="2" t="s">
-        <v>36</v>
-      </c>
+      <c r="A2033" s="2"/>
       <c r="B2033" s="1"/>
       <c r="C2033" s="1"/>
       <c r="D2033" s="1"/>
@@ -21984,9 +20943,7 @@
       <c r="H2033" s="1"/>
     </row>
     <row r="2034" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A2034" s="2" t="s">
-        <v>37</v>
-      </c>
+      <c r="A2034" s="2"/>
       <c r="B2034" s="1"/>
       <c r="C2034" s="1"/>
       <c r="D2034" s="1"/>
@@ -21996,9 +20953,7 @@
       <c r="H2034" s="1"/>
     </row>
     <row r="2035" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A2035" s="2" t="s">
-        <v>38</v>
-      </c>
+      <c r="A2035" s="2"/>
       <c r="B2035" s="1"/>
       <c r="C2035" s="1"/>
       <c r="D2035" s="1"/>
@@ -22008,9 +20963,7 @@
       <c r="H2035" s="1"/>
     </row>
     <row r="2036" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A2036" s="2" t="s">
-        <v>39</v>
-      </c>
+      <c r="A2036" s="2"/>
       <c r="B2036" s="1"/>
       <c r="C2036" s="1"/>
       <c r="D2036" s="1"/>
@@ -22020,9 +20973,7 @@
       <c r="H2036" s="1"/>
     </row>
     <row r="2037" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A2037" s="2" t="s">
-        <v>40</v>
-      </c>
+      <c r="A2037" s="2"/>
       <c r="B2037" s="1"/>
       <c r="C2037" s="1"/>
       <c r="D2037" s="1"/>
@@ -22032,9 +20983,7 @@
       <c r="H2037" s="1"/>
     </row>
     <row r="2038" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A2038" s="2" t="s">
-        <v>41</v>
-      </c>
+      <c r="A2038" s="2"/>
       <c r="B2038" s="1"/>
       <c r="C2038" s="1"/>
       <c r="D2038" s="1"/>
@@ -22044,9 +20993,7 @@
       <c r="H2038" s="1"/>
     </row>
     <row r="2039" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A2039" s="2" t="s">
-        <v>42</v>
-      </c>
+      <c r="A2039" s="2"/>
       <c r="B2039" s="1"/>
       <c r="C2039" s="1"/>
       <c r="D2039" s="1"/>
@@ -22056,9 +21003,7 @@
       <c r="H2039" s="1"/>
     </row>
     <row r="2040" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A2040" s="2" t="s">
-        <v>43</v>
-      </c>
+      <c r="A2040" s="2"/>
       <c r="B2040" s="1"/>
       <c r="C2040" s="1"/>
       <c r="D2040" s="1"/>
@@ -22068,9 +21013,7 @@
       <c r="H2040" s="1"/>
     </row>
     <row r="2041" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A2041" s="2" t="s">
-        <v>44</v>
-      </c>
+      <c r="A2041" s="2"/>
       <c r="B2041" s="1"/>
       <c r="C2041" s="1"/>
       <c r="D2041" s="1"/>
@@ -22080,9 +21023,7 @@
       <c r="H2041" s="1"/>
     </row>
     <row r="2042" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A2042" s="2" t="s">
-        <v>45</v>
-      </c>
+      <c r="A2042" s="2"/>
       <c r="B2042" s="1"/>
       <c r="C2042" s="1"/>
       <c r="D2042" s="1"/>
@@ -22092,9 +21033,7 @@
       <c r="H2042" s="1"/>
     </row>
     <row r="2043" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A2043" s="2" t="s">
-        <v>46</v>
-      </c>
+      <c r="A2043" s="2"/>
       <c r="B2043" s="1"/>
       <c r="C2043" s="1"/>
       <c r="D2043" s="1"/>
@@ -22104,9 +21043,7 @@
       <c r="H2043" s="1"/>
     </row>
     <row r="2044" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A2044" s="2" t="s">
-        <v>47</v>
-      </c>
+      <c r="A2044" s="2"/>
       <c r="B2044" s="1"/>
       <c r="C2044" s="1"/>
       <c r="D2044" s="1"/>
@@ -22116,9 +21053,7 @@
       <c r="H2044" s="1"/>
     </row>
     <row r="2045" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A2045" s="2" t="s">
-        <v>48</v>
-      </c>
+      <c r="A2045" s="2"/>
       <c r="B2045" s="1"/>
       <c r="C2045" s="1"/>
       <c r="D2045" s="1"/>
@@ -22128,9 +21063,7 @@
       <c r="H2045" s="1"/>
     </row>
     <row r="2046" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A2046" s="2" t="s">
-        <v>49</v>
-      </c>
+      <c r="A2046" s="2"/>
       <c r="B2046" s="1"/>
       <c r="C2046" s="1"/>
       <c r="D2046" s="1"/>
@@ -22140,9 +21073,7 @@
       <c r="H2046" s="1"/>
     </row>
     <row r="2047" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A2047" s="2" t="s">
-        <v>50</v>
-      </c>
+      <c r="A2047" s="2"/>
       <c r="B2047" s="1"/>
       <c r="C2047" s="1"/>
       <c r="D2047" s="1"/>
@@ -22152,9 +21083,7 @@
       <c r="H2047" s="1"/>
     </row>
     <row r="2048" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A2048" s="2" t="s">
-        <v>51</v>
-      </c>
+      <c r="A2048" s="2"/>
       <c r="B2048" s="1"/>
       <c r="C2048" s="1"/>
       <c r="D2048" s="1"/>
@@ -22164,9 +21093,7 @@
       <c r="H2048" s="1"/>
     </row>
     <row r="2049" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A2049" s="2" t="s">
-        <v>52</v>
-      </c>
+      <c r="A2049" s="2"/>
       <c r="B2049" s="1"/>
       <c r="C2049" s="1"/>
       <c r="D2049" s="1"/>
@@ -22176,9 +21103,7 @@
       <c r="H2049" s="1"/>
     </row>
     <row r="2050" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A2050" s="2" t="s">
-        <v>53</v>
-      </c>
+      <c r="A2050" s="2"/>
       <c r="B2050" s="1"/>
       <c r="C2050" s="1"/>
       <c r="D2050" s="1"/>
@@ -22188,9 +21113,7 @@
       <c r="H2050" s="1"/>
     </row>
     <row r="2051" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A2051" s="2" t="s">
-        <v>55</v>
-      </c>
+      <c r="A2051" s="2"/>
       <c r="B2051" s="1"/>
       <c r="C2051" s="1"/>
       <c r="D2051" s="1"/>
@@ -22200,9 +21123,7 @@
       <c r="H2051" s="1"/>
     </row>
     <row r="2052" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A2052" s="2" t="s">
-        <v>56</v>
-      </c>
+      <c r="A2052" s="2"/>
       <c r="B2052" s="1"/>
       <c r="C2052" s="1"/>
       <c r="D2052" s="1"/>
@@ -32297,7 +31218,7 @@
     </row>
     <row r="3051" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3051" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B3051" s="1"/>
       <c r="C3051" s="1"/>
@@ -32309,7 +31230,7 @@
     </row>
     <row r="3052" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3052" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B3052" s="1"/>
       <c r="C3052" s="1"/>
@@ -42405,7 +41326,7 @@
     </row>
     <row r="4051" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4051" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B4051" s="1"/>
       <c r="C4051" s="1"/>
@@ -42417,7 +41338,7 @@
     </row>
     <row r="4052" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4052" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B4052" s="1"/>
       <c r="C4052" s="1"/>
